--- a/Daily Attandance record/April_May/19_April.xlsx
+++ b/Daily Attandance record/April_May/19_April.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\Daily Attandance record\April_May\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94632B6-5BF9-4122-A79F-CD8E75874D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BBAA06-1734-4FF9-AF5F-9848B5D5B317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="1" r:id="rId1"/>
@@ -1877,7 +1877,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F280"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A337" workbookViewId="0">
       <selection activeCell="H139" sqref="H139"/>
     </sheetView>
   </sheetViews>
@@ -7508,10 +7508,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2AA26F-E78D-43BA-AEFE-7B5D8B0E49DC}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F205"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -7545,7 +7544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -7565,7 +7564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -7585,7 +7584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -7605,7 +7604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -7625,7 +7624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -7645,7 +7644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -7665,7 +7664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -7705,7 +7704,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -7725,7 +7724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -7785,7 +7784,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -7805,7 +7804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -7825,7 +7824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -7865,7 +7864,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -7885,7 +7884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -7905,7 +7904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -7945,7 +7944,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -7965,7 +7964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -7985,7 +7984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -8005,7 +8004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -8025,7 +8024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -8045,7 +8044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -8065,7 +8064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -8085,7 +8084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -8105,7 +8104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -8125,7 +8124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -8145,7 +8144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -8165,7 +8164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -8185,7 +8184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -8205,7 +8204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -8225,7 +8224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -8245,7 +8244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -8265,7 +8264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -8285,7 +8284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -8305,7 +8304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -8325,7 +8324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -8345,7 +8344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -8365,7 +8364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -8385,7 +8384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -8405,7 +8404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -8425,7 +8424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -8445,7 +8444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -8465,7 +8464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -8485,7 +8484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -8505,7 +8504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -8525,7 +8524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -8545,7 +8544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -8565,7 +8564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -8585,7 +8584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -8625,7 +8624,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -8645,7 +8644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -8665,7 +8664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -8685,7 +8684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -8705,7 +8704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -8725,7 +8724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -8745,7 +8744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -8765,7 +8764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -8785,7 +8784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -8805,7 +8804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -8825,7 +8824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -8845,7 +8844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -8865,7 +8864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -8885,7 +8884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -8905,7 +8904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -8925,7 +8924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -8945,7 +8944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -8965,7 +8964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -8985,7 +8984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -9005,7 +9004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -9025,7 +9024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -9045,7 +9044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -9065,7 +9064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -9085,7 +9084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -9105,7 +9104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -9125,7 +9124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -9145,7 +9144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -9165,7 +9164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -9185,7 +9184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -9205,7 +9204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -9225,7 +9224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -9245,7 +9244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -9265,7 +9264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -9285,7 +9284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -9305,7 +9304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -9325,7 +9324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -9345,7 +9344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -9365,7 +9364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -9385,7 +9384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -9405,7 +9404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -9425,7 +9424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -9445,7 +9444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -9465,7 +9464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -9485,7 +9484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -9505,7 +9504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -9525,7 +9524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -9545,7 +9544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -9565,7 +9564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -9585,7 +9584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -9605,7 +9604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -9625,7 +9624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -9645,7 +9644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -9665,7 +9664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -9685,7 +9684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -9705,7 +9704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -9725,7 +9724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -9745,7 +9744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -9765,7 +9764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -9785,7 +9784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -9805,7 +9804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>114</v>
       </c>
@@ -9825,7 +9824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -9845,7 +9844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>116</v>
       </c>
@@ -9865,7 +9864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -9886,7 +9885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>118</v>
       </c>
@@ -9906,7 +9905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>119</v>
       </c>
@@ -9926,7 +9925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>120</v>
       </c>
@@ -9946,7 +9945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>121</v>
       </c>
@@ -9966,7 +9965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>122</v>
       </c>
@@ -9986,7 +9985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>123</v>
       </c>
@@ -10006,7 +10005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>124</v>
       </c>
@@ -10026,7 +10025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>125</v>
       </c>
@@ -10046,7 +10045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>126</v>
       </c>
@@ -10066,7 +10065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>127</v>
       </c>
@@ -10086,7 +10085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -10106,7 +10105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>129</v>
       </c>
@@ -10126,7 +10125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>130</v>
       </c>
@@ -10146,7 +10145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>131</v>
       </c>
@@ -10166,7 +10165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>132</v>
       </c>
@@ -10186,7 +10185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>133</v>
       </c>
@@ -10206,7 +10205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>134</v>
       </c>
@@ -10226,7 +10225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>135</v>
       </c>
@@ -10246,7 +10245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>136</v>
       </c>
@@ -10266,7 +10265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>137</v>
       </c>
@@ -10286,7 +10285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>138</v>
       </c>
@@ -10306,7 +10305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>139</v>
       </c>
@@ -10326,7 +10325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>140</v>
       </c>
@@ -10346,7 +10345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>141</v>
       </c>
@@ -10366,7 +10365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>142</v>
       </c>
@@ -10386,7 +10385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>143</v>
       </c>
@@ -10406,7 +10405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>144</v>
       </c>
@@ -10426,7 +10425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>145</v>
       </c>
@@ -10506,7 +10505,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>149</v>
       </c>
@@ -10526,7 +10525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>150</v>
       </c>
@@ -10546,7 +10545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>151</v>
       </c>
@@ -10586,7 +10585,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>153</v>
       </c>
@@ -10706,7 +10705,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>159</v>
       </c>
@@ -10746,7 +10745,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>161</v>
       </c>
@@ -10786,7 +10785,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <v>163</v>
       </c>
@@ -10806,7 +10805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>164</v>
       </c>
@@ -10826,7 +10825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>165</v>
       </c>
@@ -10846,7 +10845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>166</v>
       </c>
@@ -10866,7 +10865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>167</v>
       </c>
@@ -10886,7 +10885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
         <v>168</v>
       </c>
@@ -10906,7 +10905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
         <v>169</v>
       </c>
@@ -10926,7 +10925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
         <v>170</v>
       </c>
@@ -10946,7 +10945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
         <v>171</v>
       </c>
@@ -10966,7 +10965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>172</v>
       </c>
@@ -10986,7 +10985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>173</v>
       </c>
@@ -11006,7 +11005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <v>174</v>
       </c>
@@ -11026,7 +11025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>175</v>
       </c>
@@ -11046,7 +11045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <v>176</v>
       </c>
@@ -11066,7 +11065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
         <v>177</v>
       </c>
@@ -11086,7 +11085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
         <v>178</v>
       </c>
@@ -11126,7 +11125,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
         <v>180</v>
       </c>
@@ -11146,7 +11145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
         <v>181</v>
       </c>
@@ -11166,7 +11165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
         <v>182</v>
       </c>
@@ -11206,7 +11205,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
         <v>184</v>
       </c>
@@ -11226,7 +11225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
         <v>185</v>
       </c>
@@ -11246,7 +11245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
         <v>186</v>
       </c>
@@ -11266,7 +11265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
         <v>187</v>
       </c>
@@ -11286,7 +11285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
         <v>188</v>
       </c>
@@ -11306,7 +11305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
         <v>189</v>
       </c>
@@ -11326,7 +11325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
         <v>190</v>
       </c>
@@ -11346,7 +11345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
         <v>191</v>
       </c>
@@ -11366,7 +11365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
         <v>192</v>
       </c>
@@ -11386,7 +11385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
         <v>193</v>
       </c>
@@ -11406,7 +11405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
         <v>194</v>
       </c>
@@ -11426,7 +11425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
         <v>195</v>
       </c>
@@ -11446,7 +11445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
         <v>196</v>
       </c>
@@ -11466,7 +11465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
         <v>197</v>
       </c>
@@ -11486,7 +11485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="4">
         <v>198</v>
       </c>
@@ -11506,7 +11505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
         <v>199</v>
       </c>
@@ -11526,7 +11525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
         <v>200</v>
       </c>
@@ -11546,7 +11545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
         <v>201</v>
       </c>
@@ -11566,7 +11565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="4">
         <v>202</v>
       </c>
@@ -11586,7 +11585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="4">
         <v>203</v>
       </c>
@@ -11606,7 +11605,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="4">
         <v>204</v>
       </c>
@@ -11627,13 +11626,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F205" xr:uid="{AA2AA26F-E78D-43BA-AEFE-7B5D8B0E49DC}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="A"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>